--- a/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EFEFE5-C799-4767-9890-DF6A909ABDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60F2A3-8013-48A1-8D38-01F55F69FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2655" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2310" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.20513363517789199</v>
+        <v>-0.10513400000000001</v>
       </c>
       <c r="C3" s="4">
         <v>5.5</v>
@@ -586,7 +586,7 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.121548563572178</v>
+        <v>7.8451000000000007E-2</v>
       </c>
       <c r="C4" s="4">
         <v>5.5</v>
@@ -604,7 +604,7 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>-3.8264805610782202E-2</v>
+        <v>0.21173500000000001</v>
       </c>
       <c r="C5" s="4">
         <v>5.5</v>
@@ -622,7 +622,7 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -640,7 +640,7 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="4">
         <v>2.5</v>
@@ -676,7 +676,7 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C9" s="4">
         <v>2.5</v>
@@ -694,7 +694,7 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="4">
         <v>2.5</v>

--- a/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60F2A3-8013-48A1-8D38-01F55F69FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE7D6F6-C586-456C-8D03-BC313EE023BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2310" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3135" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,7 +214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,16 +567,17 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.10513400000000001</v>
+        <v>0.14486599999999999</v>
       </c>
       <c r="C3" s="4">
         <v>5.5</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.324276733848583</v>
+        <v>-1.074276733848583</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -586,16 +585,17 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>7.8451000000000007E-2</v>
+        <v>0.32845099999999999</v>
       </c>
       <c r="C4" s="4">
         <v>5.5</v>
       </c>
       <c r="D4" s="5">
-        <v>-0.90011217612916594</v>
+        <v>-0.65011217612916594</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="L4" s="16"/>
     </row>
@@ -604,16 +604,17 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>0.21173500000000001</v>
+        <v>0.46173500000000001</v>
       </c>
       <c r="C5" s="4">
         <v>5.5</v>
       </c>
       <c r="D5" s="5">
-        <v>-0.52235981321536906</v>
+        <v>-0.27235981321536906</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="L5" s="16"/>
     </row>
@@ -622,16 +623,17 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <v>-0.21399057723271375</v>
+        <v>3.6009422767286248E-2</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -640,16 +642,17 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="5">
-        <v>2.4880313700197609E-2</v>
+        <v>0.27488031370019761</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -658,16 +661,17 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C8" s="4">
         <v>2.5</v>
       </c>
       <c r="D8" s="5">
-        <v>0.20333069199637033</v>
+        <v>0.45333069199637033</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -676,16 +680,17 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C9" s="4">
         <v>2.5</v>
       </c>
       <c r="D9" s="5">
-        <v>0.33296314515597392</v>
+        <v>0.58296314515597392</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -694,16 +699,17 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C10" s="4">
         <v>2.5</v>
       </c>
       <c r="D10" s="5">
-        <v>0.4240894604164655</v>
+        <v>0.67408946041646556</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="L10" s="16"/>
     </row>
